--- a/data/534/MOSPI/APEDA/Indian Production of Bajra.xlsx
+++ b/data/534/MOSPI/APEDA/Indian Production of Bajra.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,65 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>('2019-20', 'Production')</t>
-  </si>
-  <si>
-    <t>('2019-20', 'Share(%)')</t>
-  </si>
-  <si>
-    <t>('Unnamed: 4_level_0', 'Unnamed: 4_level_1')</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Page Total</t>
-  </si>
-  <si>
-    <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
-  </si>
-  <si>
-    <t>Record 1 to 10 of 21</t>
-  </si>
-  <si>
-    <t>Page 1  2  3  of 3</t>
-  </si>
-  <si>
-    <t>- Page Size -  10  25  50  100  All</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -106,6 +47,27 @@
     </border>
     <border>
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -417,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,212 +387,285 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="n">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0_level_0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Sr No.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Share(%)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4_level_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>4685.88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C5" t="n">
+        <v>1939.45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4685.88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.22</v>
-      </c>
-      <c r="E2" t="s"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C6" t="n">
+        <v>1019.11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1939.45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E3" t="s"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="C7" t="n">
+        <v>913.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1019.11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E4" t="s"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C8" t="n">
+        <v>656.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>913.15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E5" t="s"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="C9" t="n">
+        <v>511.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>656.58</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="E6" t="s"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="C10" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>511.99</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="C11" t="n">
+        <v>185.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>367.08</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="E8" t="s"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="C12" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>185.13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E9" t="s"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E10" t="s"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>10.42</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E11" t="s"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="n">
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Page Total</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>10346.99</v>
       </c>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3Record 1 to 10 of 21  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Record 1 to 10 of 21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Page 1  2  3  of 3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>- Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>